--- a/data/trans_dic/P15D$consultar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Dificultad-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02684633797846047</v>
+        <v>0.02638420887707217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02823003486954648</v>
+        <v>0.03524631350170473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03827696297007441</v>
+        <v>0.0335977673448533</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05894763542006101</v>
+        <v>0.05921997321858329</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07715400275870544</v>
+        <v>0.08380746301041232</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09148792232358161</v>
+        <v>0.08715090163536934</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02464959980643781</v>
+        <v>0.02259352194030046</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05740493352938134</v>
+        <v>0.04893022619486493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06522860411390401</v>
+        <v>0.06438640308597129</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08262733873178831</v>
+        <v>0.08671090662000799</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3114755101992034</v>
+        <v>0.299734479373977</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1573441633748663</v>
+        <v>0.1514662832594561</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1596766552758397</v>
+        <v>0.1616008057625964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2638995837297531</v>
+        <v>0.2763646550989924</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2529914208031344</v>
+        <v>0.2633601106245211</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1966325515558124</v>
+        <v>0.2101308082539398</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2580027264740708</v>
+        <v>0.2657301254543701</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2723997115746781</v>
+        <v>0.2661124921895227</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2123574126325259</v>
+        <v>0.2062576843745923</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1545206119042039</v>
+        <v>0.1455102600892298</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1773823599142476</v>
+        <v>0.1761868297032913</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2220798388755419</v>
+        <v>0.2292617362453375</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03298803495209562</v>
+        <v>0.04758267222090819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0300180366179458</v>
+        <v>0.02960689544650193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07673471077924722</v>
+        <v>0.08479982149709882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07795355322842483</v>
+        <v>0.07489148048860858</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05315142404248197</v>
+        <v>0.04067527845071776</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04743818791478353</v>
+        <v>0.04778445840588645</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02376501041957103</v>
+        <v>0.02608742064832748</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07276302490952261</v>
+        <v>0.07091149663673015</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06856779948707485</v>
+        <v>0.07259644542866615</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05292313208292065</v>
+        <v>0.05284583847064954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07426371777270997</v>
+        <v>0.07267218203667608</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09941948447484099</v>
+        <v>0.09474895320928349</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2960281851182273</v>
+        <v>0.32344647630889</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1438774564118943</v>
+        <v>0.1383644939146967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2874262630508331</v>
+        <v>0.2759106227398588</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3391547938004627</v>
+        <v>0.352788832322215</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3765666036571002</v>
+        <v>0.353967922964858</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1893475884381292</v>
+        <v>0.1908985174412479</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2154752345600471</v>
+        <v>0.2055164954563033</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1989624767174267</v>
+        <v>0.1945585488068447</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2599213484763763</v>
+        <v>0.2685507071919457</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1364624457369353</v>
+        <v>0.1434095256470739</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2104766492342934</v>
+        <v>0.2029291810726173</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.225693294943518</v>
+        <v>0.2292911875804957</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.09741279620055351</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2402165681900732</v>
+        <v>0.2402165681900733</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1431371168179327</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04417104684527721</v>
+        <v>0.04232879149672977</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07298971645806919</v>
+        <v>0.06598629850845975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04256813853019252</v>
+        <v>0.05466365466952675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004534375289692399</v>
+        <v>0.004425839592325339</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07441827074753513</v>
+        <v>0.07408417250810641</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01511746206609516</v>
+        <v>0.01483153347585515</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03758538212003072</v>
+        <v>0.03746624545848059</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1497345840320971</v>
+        <v>0.1542655043922285</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07054041250377831</v>
+        <v>0.07087098376106574</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05232801088679588</v>
+        <v>0.05522563347847004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05780213128678925</v>
+        <v>0.05441174105479776</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06704047481784851</v>
+        <v>0.07053631407949904</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2366695409244629</v>
+        <v>0.2330316817008922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2536033713336156</v>
+        <v>0.256406409460113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.240031130759388</v>
+        <v>0.2444574557132272</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05054264871447734</v>
+        <v>0.04937569772263418</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3862314029419879</v>
+        <v>0.390992994524051</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1334358141622608</v>
+        <v>0.130002205604716</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.210358754903595</v>
+        <v>0.2176880484431068</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3555254549769715</v>
+        <v>0.3616288338526631</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.238247792512473</v>
+        <v>0.2382377862947761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1549948629837498</v>
+        <v>0.1664501523079221</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1844484382699497</v>
+        <v>0.1866175098165831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1757715163932211</v>
+        <v>0.176013672007188</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2157058360281585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07964052663411109</v>
+        <v>0.07964052663411107</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1116,16 +1116,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06747112096799428</v>
+        <v>0.07127239986789238</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07980614821743517</v>
+        <v>0.07746265574562208</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02643414005383953</v>
+        <v>0.02503098039141787</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1133,19 +1133,19 @@
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.1275557283350384</v>
+        <v>0.1270946887711302</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04851144508161716</v>
+        <v>0.05039338287177442</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03849302621003627</v>
+        <v>0.03981478240703343</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08165728421520602</v>
+        <v>0.08735911089441631</v>
       </c>
     </row>
     <row r="15">
@@ -1156,36 +1156,36 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3891685805914194</v>
+        <v>0.3783049165039176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1158264988537387</v>
+        <v>0.09985511354954806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4095461531167292</v>
+        <v>0.4095593517266651</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.189013092682785</v>
+        <v>0.1872876202985998</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.1575859405264674</v>
+        <v>0.156190487595545</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.3334238968632681</v>
+        <v>0.3370570110767412</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2702674835350023</v>
+        <v>0.2703888021743919</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08271571132434655</v>
+        <v>0.08434781186403892</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.226659169963199</v>
+        <v>0.2371109540656296</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2178059187917473</v>
+        <v>0.2234657317457011</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08467196569524797</v>
+        <v>0.08208560058275456</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05284669686585362</v>
+        <v>0.05162005404419154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08767485673011537</v>
+        <v>0.08745097465357801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05344117735633263</v>
+        <v>0.05161680792172803</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06896902897984661</v>
+        <v>0.0683072708721237</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05468233138913536</v>
+        <v>0.05716608181892709</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06192054831022711</v>
+        <v>0.0618737796938511</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.139853636367952</v>
+        <v>0.1425396842919964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09033529882379497</v>
+        <v>0.09219451049291885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06191297418383423</v>
+        <v>0.06239420229108672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08929399538742501</v>
+        <v>0.08665768773830274</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.104669726442014</v>
+        <v>0.1038064367318228</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2053090878826451</v>
+        <v>0.2099429203479405</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.121431709675932</v>
+        <v>0.1221887524702352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1827619403020461</v>
+        <v>0.1787374702592777</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1396878547870321</v>
+        <v>0.1366979692729175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2063089548335788</v>
+        <v>0.219058822511954</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.127308328352349</v>
+        <v>0.1297559603096637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1506847942622639</v>
+        <v>0.1529676499026081</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2330381451123675</v>
+        <v>0.2312246964495173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1943525442761642</v>
+        <v>0.1911012631917252</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1099106722826269</v>
+        <v>0.111515434940019</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1504880193023816</v>
+        <v>0.1535383953342522</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1679890891390522</v>
+        <v>0.1652280149564855</v>
       </c>
     </row>
     <row r="19">
@@ -1595,37 +1595,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2021</v>
+        <v>1986</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2130</v>
+        <v>2659</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1601</v>
+        <v>1405</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4804</v>
+        <v>4827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5253</v>
+        <v>5706</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4445</v>
+        <v>4234</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9000</v>
+        <v>7671</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9362</v>
+        <v>9241</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7469</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="7">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5887</v>
+        <v>5665</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11845</v>
+        <v>11403</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12046</v>
+        <v>12191</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11035</v>
+        <v>11556</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6298</v>
+        <v>6556</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16026</v>
+        <v>17127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17566</v>
+        <v>18092</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13233</v>
+        <v>12928</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9300</v>
+        <v>9033</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24226</v>
+        <v>22814</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25459</v>
+        <v>25287</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20075</v>
+        <v>20724</v>
       </c>
     </row>
     <row r="8">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1135</v>
+        <v>1638</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2840</v>
+        <v>2801</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3845</v>
+        <v>4249</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3850</v>
+        <v>3698</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1618</v>
+        <v>1238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3946</v>
+        <v>3974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1154</v>
+        <v>1267</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5323</v>
+        <v>5187</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4447</v>
+        <v>4708</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9409</v>
+        <v>9396</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>7327</v>
+        <v>7170</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12182</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="11">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10188</v>
+        <v>11131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13614</v>
+        <v>13092</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14401</v>
+        <v>13824</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16748</v>
+        <v>17422</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11462</v>
+        <v>10774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>15748</v>
+        <v>15877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10464</v>
+        <v>9981</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14555</v>
+        <v>14233</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>16856</v>
+        <v>17416</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24262</v>
+        <v>25497</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20767</v>
+        <v>20022</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27656</v>
+        <v>28096</v>
       </c>
     </row>
     <row r="12">
@@ -1952,40 +1952,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1950</v>
+        <v>1869</v>
       </c>
       <c r="D14" s="6" t="n">
+        <v>4460</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2611</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>330</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1887</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>926</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1878</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>8604</v>
+      </c>
+      <c r="K14" s="6" t="n">
         <v>4934</v>
       </c>
-      <c r="E14" s="6" t="n">
-        <v>2033</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>338</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>1896</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>944</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>1884</v>
-      </c>
-      <c r="J14" s="6" t="n">
-        <v>8352</v>
-      </c>
-      <c r="K14" s="6" t="n">
-        <v>4911</v>
-      </c>
       <c r="L14" s="6" t="n">
-        <v>6806</v>
+        <v>7183</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5659</v>
+        <v>5327</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8742</v>
+        <v>9198</v>
       </c>
     </row>
     <row r="15">
@@ -1996,40 +1996,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10449</v>
+        <v>10288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17143</v>
+        <v>17332</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11465</v>
+        <v>11677</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3772</v>
+        <v>3685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9840</v>
+        <v>9961</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8335</v>
+        <v>8120</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10547</v>
+        <v>10914</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19830</v>
+        <v>20171</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16588</v>
+        <v>16587</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20158</v>
+        <v>21648</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18058</v>
+        <v>18271</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22921</v>
+        <v>22953</v>
       </c>
     </row>
     <row r="16">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1665</v>
+        <v>1758</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2020</v>
+        <v>1961</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1459</v>
+        <v>1382</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2149,19 +2149,19 @@
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>6579</v>
+        <v>6555</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1725</v>
+        <v>1792</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1838</v>
+        <v>1901</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8719</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="19">
@@ -2172,36 +2172,36 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9601</v>
+        <v>9333</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5122</v>
+        <v>4416</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10365</v>
+        <v>10366</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10434</v>
+        <v>10338</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>4141</v>
+        <v>4104</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>17197</v>
+        <v>17385</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9612</v>
+        <v>9616</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5832</v>
+        <v>5947</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>10821</v>
+        <v>11320</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>23257</v>
+        <v>23861</v>
       </c>
     </row>
     <row r="20">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10341</v>
+        <v>10025</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14888</v>
+        <v>14543</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17414</v>
+        <v>17369</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11812</v>
+        <v>11409</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6325</v>
+        <v>6264</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13857</v>
+        <v>14487</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11716</v>
+        <v>11708</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32039</v>
+        <v>32654</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19317</v>
+        <v>19714</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>33132</v>
+        <v>33390</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>34631</v>
+        <v>33609</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>47113</v>
+        <v>46725</v>
       </c>
     </row>
     <row r="23">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25075</v>
+        <v>25641</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>34210</v>
+        <v>34424</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>36300</v>
+        <v>35500</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30874</v>
+        <v>30213</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18919</v>
+        <v>20088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32262</v>
+        <v>32882</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>28512</v>
+        <v>28944</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>53386</v>
+        <v>52971</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41559</v>
+        <v>40864</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58817</v>
+        <v>59676</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>58365</v>
+        <v>59548</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>75614</v>
+        <v>74371</v>
       </c>
     </row>
     <row r="24">
